--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Portugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -505,6 +505,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,15 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -532,14 +532,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -556,15 +557,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,9 +579,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="5"/>
-    <tableColumn id="2" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -864,44 +856,44 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -916,8 +908,8 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>2007</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -938,8 +930,8 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>2007</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -960,8 +952,8 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>2008</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -983,8 +975,8 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>2009</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1005,8 +997,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1027,8 +1019,8 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>2010</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1049,8 +1041,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>2011</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1072,8 +1064,8 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>2012</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1087,15 +1079,15 @@
         <v>34</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1116,8 +1108,8 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>2013</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1138,8 +1130,8 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>2014</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1160,8 +1152,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1182,8 +1174,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>2015</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1204,8 +1196,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1226,8 +1218,8 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1248,8 +1240,8 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1270,8 +1262,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>2016</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1285,15 +1277,15 @@
         <v>34</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1314,8 +1306,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1327,7 +1319,7 @@
       <c r="D21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -1338,8 +1330,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1360,8 +1352,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1382,8 +1374,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>2018</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1404,8 +1396,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="26">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1426,8 +1418,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="26">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>2019</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1455,7 +1447,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20 F22:F26">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1472,7 +1464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1502,14 +1494,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +1512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1531,7 +1523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1542,7 +1534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1553,7 +1545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1564,7 +1556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1575,7 +1567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -856,7 +856,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="0"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>Year</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Obv: Coloured buildings</t>
+  </si>
+  <si>
+    <t>Participation in the 2020 Summer Olympics</t>
+  </si>
+  <si>
+    <t>75 years since the formation of the United Nations</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -579,9 +601,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="4"/>
+    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -850,29 +872,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -891,7 +913,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
@@ -908,7 +930,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>2007</v>
       </c>
@@ -930,7 +952,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>2007</v>
       </c>
@@ -952,7 +974,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>2008</v>
       </c>
@@ -975,7 +997,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>2009</v>
       </c>
@@ -997,7 +1019,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>2009</v>
       </c>
@@ -1019,7 +1041,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>2010</v>
       </c>
@@ -1041,7 +1063,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>2011</v>
       </c>
@@ -1064,7 +1086,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>2012</v>
       </c>
@@ -1086,7 +1108,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>2012</v>
       </c>
@@ -1108,7 +1130,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>2013</v>
       </c>
@@ -1130,7 +1152,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>2014</v>
       </c>
@@ -1152,7 +1174,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>2014</v>
       </c>
@@ -1174,7 +1196,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>2015</v>
       </c>
@@ -1196,7 +1218,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>2015</v>
       </c>
@@ -1218,7 +1240,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>2015</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>2016</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>2016</v>
       </c>
@@ -1284,7 +1306,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>2017</v>
       </c>
@@ -1306,7 +1328,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <v>2017</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22">
         <v>2017</v>
       </c>
@@ -1352,7 +1374,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>2018</v>
       </c>
@@ -1374,7 +1396,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>2018</v>
       </c>
@@ -1396,7 +1418,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>2019</v>
       </c>
@@ -1418,7 +1440,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>2019</v>
       </c>
@@ -1437,6 +1459,46 @@
       </c>
       <c r="G26" s="11" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f t="shared" ref="G27:G28" si="2">IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1447,11 +1509,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20 F22:F26">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F22:F26">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1463,12 +1542,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1494,14 +1590,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1512,7 +1608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1523,7 +1619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1534,7 +1630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1545,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1556,7 +1652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1567,7 +1663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Portugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B297DBD-1A76-4D39-9F76-8C00A288CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>Year</t>
   </si>
@@ -255,16 +256,22 @@
     <t>Obv: Coloured buildings</t>
   </si>
   <si>
-    <t>Participation in the 2020 Summer Olympics</t>
-  </si>
-  <si>
     <t>75 years since the formation of the United Nations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">730 years since the foundation of the University of Coimbra	</t>
+  </si>
+  <si>
+    <t>360.000</t>
+  </si>
+  <si>
+    <t>507.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,9 +543,18 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -554,15 +570,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -594,16 +601,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -871,30 +878,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -913,7 +920,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
@@ -930,7 +937,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2007</v>
       </c>
@@ -952,7 +959,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2007</v>
       </c>
@@ -974,7 +981,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>2008</v>
       </c>
@@ -997,7 +1004,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2009</v>
       </c>
@@ -1019,7 +1026,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2009</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>2010</v>
       </c>
@@ -1063,7 +1070,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>2011</v>
       </c>
@@ -1086,7 +1093,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2012</v>
       </c>
@@ -1108,7 +1115,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2012</v>
       </c>
@@ -1130,7 +1137,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>2013</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>2014</v>
       </c>
@@ -1174,7 +1181,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>2014</v>
       </c>
@@ -1196,7 +1203,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>2015</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>2015</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>2015</v>
       </c>
@@ -1262,7 +1269,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>2016</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>2016</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>2017</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>2017</v>
       </c>
@@ -1352,7 +1359,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>2017</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>2018</v>
       </c>
@@ -1396,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>2018</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>2019</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>2019</v>
       </c>
@@ -1462,18 +1469,20 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>2020</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="F27" s="10">
         <v>0</v>
       </c>
@@ -1482,18 +1491,20 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>2020</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="F28" s="10">
         <v>0</v>
       </c>
@@ -1543,7 +1554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1560,7 +1571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1583,21 +1594,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1619,7 +1630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1641,7 +1652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1652,7 +1663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1663,7 +1674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1676,12 +1687,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Portugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B297DBD-1A76-4D39-9F76-8C00A288CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57DC71-E0E8-4C3F-AB03-2A89548456BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Year</t>
   </si>
@@ -266,6 +275,33 @@
   </si>
   <si>
     <t>507.000</t>
+  </si>
+  <si>
+    <t>Portuguese Presidency of the Council of the European Union</t>
+  </si>
+  <si>
+    <t>Summer Olympics in Tokyo</t>
+  </si>
+  <si>
+    <t>100th Anniversary - First Crossing of the South Atlantic by Plane</t>
+  </si>
+  <si>
+    <t>1.015.000</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>512.000</t>
+  </si>
+  <si>
+    <t>World Youth Day 2023 Lisbon</t>
+  </si>
+  <si>
+    <t>Peace Among Nations</t>
+  </si>
+  <si>
+    <t>515.000</t>
   </si>
 </sst>
 </file>
@@ -545,7 +581,47 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -608,9 +684,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -879,29 +955,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -920,7 +996,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
@@ -937,7 +1013,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>2007</v>
       </c>
@@ -959,7 +1035,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>2007</v>
       </c>
@@ -974,14 +1050,14 @@
         <v>30</v>
       </c>
       <c r="F4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>2008</v>
       </c>
@@ -996,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1004,7 +1080,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>2009</v>
       </c>
@@ -1019,14 +1095,14 @@
         <v>29</v>
       </c>
       <c r="F6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>2009</v>
       </c>
@@ -1041,14 +1117,14 @@
         <v>32</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>2010</v>
       </c>
@@ -1070,7 +1146,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>2011</v>
       </c>
@@ -1093,7 +1169,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>2012</v>
       </c>
@@ -1115,7 +1191,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>2012</v>
       </c>
@@ -1137,7 +1213,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>2013</v>
       </c>
@@ -1159,7 +1235,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>2014</v>
       </c>
@@ -1181,7 +1257,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>2014</v>
       </c>
@@ -1196,14 +1272,14 @@
         <v>35</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>2015</v>
       </c>
@@ -1225,7 +1301,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>2015</v>
       </c>
@@ -1247,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>2015</v>
       </c>
@@ -1269,7 +1345,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>2016</v>
       </c>
@@ -1291,7 +1367,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>2016</v>
       </c>
@@ -1313,7 +1389,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>2017</v>
       </c>
@@ -1335,7 +1411,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <v>2017</v>
       </c>
@@ -1359,7 +1435,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22">
         <v>2017</v>
       </c>
@@ -1381,7 +1457,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>2018</v>
       </c>
@@ -1403,7 +1479,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>2018</v>
       </c>
@@ -1425,7 +1501,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>2019</v>
       </c>
@@ -1447,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>2019</v>
       </c>
@@ -1469,7 +1545,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>2020</v>
       </c>
@@ -1491,7 +1567,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>2020</v>
       </c>
@@ -1510,6 +1586,138 @@
       </c>
       <c r="G28" s="11" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" ref="G29" si="3">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" ref="G30:G32" si="4">IF(OR(AND(F30&gt;1,F30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11" t="str">
+        <f t="shared" ref="G33:G34" si="5">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1520,11 +1728,79 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20 F22:F26">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F22:F26">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1536,13 +1812,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1553,12 +1829,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+  <conditionalFormatting sqref="F31 F33">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F31 F33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1570,12 +1846,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+  <conditionalFormatting sqref="F32 F34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F32 F34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1598,17 +1874,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1630,7 +1906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1641,7 +1917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1652,7 +1928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1663,7 +1939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1674,7 +1950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57DC71-E0E8-4C3F-AB03-2A89548456BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0764CB-0D4B-49E7-8987-57F6550F9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>515.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -581,14 +581,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -621,15 +622,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -684,9 +676,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -961,7 +953,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -982,17 +974,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -1000,16 +992,16 @@
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -1018,14 +1010,14 @@
         <v>2007</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -1040,14 +1032,14 @@
         <v>2007</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -1062,14 +1054,14 @@
         <v>2008</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -1085,14 +1077,14 @@
         <v>2009</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -1107,14 +1099,14 @@
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -1129,14 +1121,14 @@
         <v>2010</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -1151,14 +1143,14 @@
         <v>2011</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -1174,14 +1166,14 @@
         <v>2012</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -1196,14 +1188,14 @@
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -1218,14 +1210,14 @@
         <v>2013</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
@@ -1240,14 +1232,14 @@
         <v>2014</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
@@ -1262,14 +1254,14 @@
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1284,14 +1276,14 @@
         <v>2015</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
@@ -1306,14 +1298,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
@@ -1328,14 +1320,14 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -1350,14 +1342,14 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
@@ -1372,14 +1364,14 @@
         <v>2016</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -1394,14 +1386,14 @@
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
@@ -1416,19 +1408,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1440,14 +1432,14 @@
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
@@ -1462,14 +1454,14 @@
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
@@ -1484,14 +1476,14 @@
         <v>2018</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -1506,14 +1498,14 @@
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -1528,14 +1520,14 @@
         <v>2019</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
@@ -1550,14 +1542,14 @@
         <v>2020</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
@@ -1572,14 +1564,14 @@
         <v>2020</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
@@ -1594,14 +1586,14 @@
         <v>2021</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
@@ -1616,14 +1608,14 @@
         <v>2021</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="10">
         <v>0</v>
@@ -1638,14 +1630,14 @@
         <v>2022</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="10">
         <v>0</v>
@@ -1660,14 +1652,14 @@
         <v>2022</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
@@ -1682,14 +1674,14 @@
         <v>2023</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -1704,14 +1696,14 @@
         <v>2023</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -1728,7 +1720,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20 F22:F26">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1745,7 +1737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1762,7 +1754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1779,7 +1771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1796,7 +1788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1813,7 +1805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1830,11 +1822,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31 F33">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31 F33">
+  <conditionalFormatting sqref="F33 F31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1847,11 +1839,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32 F34">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
+  <conditionalFormatting sqref="F34 F32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1886,13 +1878,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1900,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1911,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1922,10 +1914,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1933,10 +1925,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1944,10 +1936,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1955,10 +1947,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
